--- a/biology/Médecine/BS_OHSAS_18001/BS_OHSAS_18001.xlsx
+++ b/biology/Médecine/BS_OHSAS_18001/BS_OHSAS_18001.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">OHSAS 18001 (pour « Occupational Health and Safety Assessment Series ») est une norme internationale publiée en 1999 et annulée en 2018 (publication de la norme ISO 45001), était un modèle de système de gestion de la santé et de la sécurité au travail. 
 </t>
@@ -511,7 +523,9 @@
           <t>Objectif</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son objectif consistait à fournir aux entreprises un support d'évaluation et de certification de leur système de gestion de la santé et de la sécurité au travail, compatible avec les normes internationales de systèmes de gestion (les plus connues : ISO 9001 pour la qualité totale, ISO 14001 pour l'environnement). 
 Ce référentiel a été publié en 1999 à l'initiative du BSI et de divers organismes certificateurs dans l'espoir de la création d'une norme ISO en la matière. Mais l'ISO n'a pas décidé de produire la norme attendue (deux votes négatifs à l'époque). Finalement c'est l'Organisation Internationale du Travail (ILO en anglais) qui s'est trouvée la plus à même de remplir ce mandat avec l'édition du référentiel international ILO-OSH « principes directeurs des systèmes de gestion de la sécurité et de la santé au travail » en 2001, sans que l'ISO souhaite collaborer à ce travail. La promotion de la norme OHSAS 18001 a été assurée au niveau international par les organismes de certification.
@@ -520,7 +534,7 @@
 OHSAS 18001 : la norme elle-même (née en 1999 avec une structure copiée-collée de l'ISO 14001) ;
 OHSAS 18002 : un guide pour sa mise en place.
 BSI proposait également une autre norme de systèmes de gestion de la santé et de la sécurité au travail, la norme BS 8800 (1996 révisée 2004 et devenue OHSAS 18004 en 2008), bien plus riche et complète notamment par ses annexes (un peu comme la norme ANSI Z10:2005 aux États-Unis, basée sur l'ILO-OSH 2001). 
-La OHSAS 18001 a été révisée en juillet 2007 en se rapprochant sensiblement du référentiel international ILO-OSH 2001 sans en adopter encore toute la pertinence ou l'expliciter[1],[2].
+La OHSAS 18001 a été révisée en juillet 2007 en se rapprochant sensiblement du référentiel international ILO-OSH 2001 sans en adopter encore toute la pertinence ou l'expliciter,.
 BSI a annulé ses normes OHSAS 18001, 18002 et 18004 et adopté la norme ISO 45001 en 2018 à la place.
 </t>
         </is>
@@ -550,7 +564,9 @@
           <t>ILO-OSH</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les principaux référentiels nationaux de systèmes de gestion de la sécurité et de la santé au travail font généralement référence au seul référentiel international en la matière, celui du Bureau International du Travail (OIT) : le référentiel ILO-OSH (2001) Principes directeurs concernant les systèmes de gestion de la sécurité et de la santé au travail.
 </t>
